--- a/data/trans_media/Q24D_2-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q24D_2-Estudios-trans_media.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,1</t>
+          <t>2,38; 3,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,57</t>
+          <t>1,81; 2,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,44</t>
+          <t>1,84; 2,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,73</t>
+          <t>2,5; 3,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,72</t>
+          <t>2,22; 2,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,39</t>
+          <t>2,28; 3,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,24</t>
+          <t>2,47; 3,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,44</t>
+          <t>2,01; 2,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 2,79</t>
+          <t>2,32; 2,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 2,84</t>
+          <t>2,21; 2,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 2,94</t>
+          <t>2,47; 2,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,9</t>
+          <t>1,86; 2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,12</t>
+          <t>2,16; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1024,32 +1024,32 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,9</t>
+          <t>1,79; 2,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>2,09; 3,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 3,26</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>2,1; 3,06</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 3,26</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 3,06</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,71</t>
+          <t>1,93; 2,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 2,82</t>
+          <t>2,24; 2,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,47; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,06</t>
+          <t>2,49; 3,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,01; 2,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,34; 2,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">

--- a/data/trans_media/Q24D_2-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q24D_2-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,36</t>
+          <t>2,66; 4,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,06</t>
+          <t>2,39; 3,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,76</t>
+          <t>2,07; 2,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,55</t>
+          <t>1,84; 2,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,42</t>
+          <t>1,84; 2,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,42</t>
+          <t>2,32; 3,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,7</t>
+          <t>2,52; 3,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 2,72</t>
+          <t>2,24; 2,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 2,83</t>
+          <t>2,24; 2,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,34</t>
+          <t>2,27; 3,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,26</t>
+          <t>2,47; 3,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,43</t>
+          <t>2,01; 2,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,84</t>
+          <t>2,34; 2,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 2,82</t>
+          <t>2,24; 2,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 2,97</t>
+          <t>2,47; 2,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,63</t>
+          <t>2,33; 2,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,97</t>
+          <t>1,86; 2,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,05</t>
+          <t>2,19; 3,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,13</t>
+          <t>2,17; 4,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,9</t>
+          <t>1,76; 2,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,05</t>
+          <t>2,07; 3,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,26</t>
+          <t>1,8; 3,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 2,71</t>
+          <t>1,91; 2,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,83</t>
+          <t>2,22; 2,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,4</t>
+          <t>2,14; 3,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,23</t>
+          <t>2,49; 3,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,08</t>
+          <t>2,5; 3,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,78</t>
+          <t>2,38; 2,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,39</t>
+          <t>2,03; 2,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 2,83</t>
+          <t>2,35; 2,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 2,78</t>
+          <t>2,44; 2,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,65</t>
+          <t>2,37; 2,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
